--- a/FedExApplication/src/TestFiles/FedExShipments_DEV.xlsx
+++ b/FedExApplication/src/TestFiles/FedExShipments_DEV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="104">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -172,57 +172,12 @@
     <t>FRG</t>
   </si>
   <si>
-    <t>$231.08</t>
-  </si>
-  <si>
-    <t>$19.04</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>$27.50</t>
-  </si>
-  <si>
-    <t>$31.73</t>
-  </si>
-  <si>
-    <t>$43.36</t>
-  </si>
-  <si>
-    <t>$56.05</t>
-  </si>
-  <si>
-    <t>$23.27</t>
-  </si>
-  <si>
-    <t>$40.19</t>
-  </si>
-  <si>
     <t>$52.88</t>
   </si>
   <si>
-    <t>$14.81</t>
-  </si>
-  <si>
-    <t>$17.98</t>
-  </si>
-  <si>
-    <t>$21.15</t>
-  </si>
-  <si>
-    <t>$42.30</t>
-  </si>
-  <si>
-    <t>$53.93</t>
-  </si>
-  <si>
-    <t>$62.39</t>
-  </si>
-  <si>
-    <t>$111.04</t>
-  </si>
-  <si>
     <t>$223.37</t>
   </si>
   <si>
@@ -235,15 +190,6 @@
     <t>$1,171.41</t>
   </si>
   <si>
-    <t>320018792701</t>
-  </si>
-  <si>
-    <t>320018792734</t>
-  </si>
-  <si>
-    <t>320018792756</t>
-  </si>
-  <si>
     <t>320018792789</t>
   </si>
   <si>
@@ -259,65 +205,134 @@
     <t>320018792826</t>
   </si>
   <si>
-    <t>320018799382</t>
-  </si>
-  <si>
-    <t>320018799393</t>
-  </si>
-  <si>
-    <t>320018799420</t>
-  </si>
-  <si>
-    <t>320018799441</t>
-  </si>
-  <si>
-    <t>320018799485</t>
-  </si>
-  <si>
-    <t>320018799500</t>
-  </si>
-  <si>
-    <t>320018799533</t>
-  </si>
-  <si>
-    <t>320018799625</t>
-  </si>
-  <si>
-    <t>320018799658</t>
-  </si>
-  <si>
-    <t>320018799670</t>
-  </si>
-  <si>
-    <t>320018799717</t>
-  </si>
-  <si>
-    <t>320018799739</t>
-  </si>
-  <si>
-    <t>320018799761</t>
-  </si>
-  <si>
-    <t>320018799783</t>
-  </si>
-  <si>
-    <t>320018799810</t>
-  </si>
-  <si>
-    <t>320018799831</t>
-  </si>
-  <si>
-    <t>320018799875</t>
+    <t>$19.10</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>$27.59</t>
+  </si>
+  <si>
+    <t>$31.83</t>
+  </si>
+  <si>
+    <t>$43.51</t>
+  </si>
+  <si>
+    <t>$56.24</t>
+  </si>
+  <si>
+    <t>$231.34</t>
+  </si>
+  <si>
+    <t>$19.13</t>
+  </si>
+  <si>
+    <t>$23.38</t>
+  </si>
+  <si>
+    <t>$27.63</t>
+  </si>
+  <si>
+    <t>$40.38</t>
+  </si>
+  <si>
+    <t>$53.13</t>
+  </si>
+  <si>
+    <t>$14.88</t>
+  </si>
+  <si>
+    <t>$18.06</t>
+  </si>
+  <si>
+    <t>$21.25</t>
+  </si>
+  <si>
+    <t>$31.88</t>
+  </si>
+  <si>
+    <t>$42.50</t>
+  </si>
+  <si>
+    <t>$43.56</t>
+  </si>
+  <si>
+    <t>$54.19</t>
+  </si>
+  <si>
+    <t>$62.69</t>
+  </si>
+  <si>
+    <t>$111.56</t>
+  </si>
+  <si>
+    <t>310109786482</t>
+  </si>
+  <si>
+    <t>310109786493</t>
+  </si>
+  <si>
+    <t>310109786520</t>
+  </si>
+  <si>
+    <t>310109786541</t>
+  </si>
+  <si>
+    <t>310109786585</t>
+  </si>
+  <si>
+    <t>310109786600</t>
+  </si>
+  <si>
+    <t>310109786633</t>
+  </si>
+  <si>
+    <t>310109786655</t>
+  </si>
+  <si>
+    <t>310109786688</t>
+  </si>
+  <si>
+    <t>310109786703</t>
+  </si>
+  <si>
+    <t>310109786747</t>
+  </si>
+  <si>
+    <t>310109786769</t>
+  </si>
+  <si>
+    <t>310109786791</t>
+  </si>
+  <si>
+    <t>310109786817</t>
+  </si>
+  <si>
+    <t>310109786840</t>
+  </si>
+  <si>
+    <t>310109786861</t>
+  </si>
+  <si>
+    <t>310109786909</t>
+  </si>
+  <si>
+    <t>310109786920</t>
+  </si>
+  <si>
+    <t>310109786953</t>
+  </si>
+  <si>
+    <t>310109786975</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -332,10 +347,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -373,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -385,15 +396,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R26"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -862,8 +864,8 @@
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="8">
-        <v>19.04</v>
+      <c r="M2" t="s">
+        <v>63</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>37</v>
@@ -872,13 +874,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -915,8 +917,8 @@
       <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="8">
-        <v>27.5</v>
+      <c r="M3" t="s">
+        <v>65</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>37</v>
@@ -925,13 +927,13 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S3" s="3"/>
     </row>
@@ -968,8 +970,8 @@
       <c r="L4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="8">
-        <v>31.73</v>
+      <c r="M4" t="s">
+        <v>66</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>37</v>
@@ -978,13 +980,13 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -1021,8 +1023,8 @@
       <c r="L5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="8">
-        <v>43.36</v>
+      <c r="M5" t="s">
+        <v>67</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>37</v>
@@ -1031,13 +1033,13 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S5" s="3"/>
     </row>
@@ -1074,8 +1076,8 @@
       <c r="L6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="8">
-        <v>56.05</v>
+      <c r="M6" t="s">
+        <v>68</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>37</v>
@@ -1084,13 +1086,13 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S6" s="3"/>
     </row>
@@ -1127,8 +1129,8 @@
       <c r="L7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>52</v>
+      <c r="M7" t="s">
+        <v>69</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>37</v>
@@ -1137,13 +1139,13 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" t="s">
         <v>52</v>
-      </c>
-      <c r="R7" t="s">
-        <v>54</v>
       </c>
       <c r="S7" s="3"/>
     </row>
@@ -1180,8 +1182,8 @@
       <c r="L8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="8">
-        <v>19.04</v>
+      <c r="M8" t="s">
+        <v>70</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>38</v>
@@ -1190,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S8" s="3"/>
     </row>
@@ -1233,8 +1235,8 @@
       <c r="L9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="8">
-        <v>23.27</v>
+      <c r="M9" t="s">
+        <v>71</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>38</v>
@@ -1243,13 +1245,13 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q9" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S9" s="3"/>
     </row>
@@ -1286,8 +1288,8 @@
       <c r="L10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="8">
-        <v>27.5</v>
+      <c r="M10" t="s">
+        <v>72</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>38</v>
@@ -1296,13 +1298,13 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S10" s="3"/>
     </row>
@@ -1339,8 +1341,8 @@
       <c r="L11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="8">
-        <v>40.19</v>
+      <c r="M11" t="s">
+        <v>73</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>38</v>
@@ -1349,13 +1351,13 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S11" s="3"/>
     </row>
@@ -1392,8 +1394,8 @@
       <c r="L12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="8">
-        <v>52.88</v>
+      <c r="M12" t="s">
+        <v>74</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>38</v>
@@ -1402,13 +1404,13 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q12" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S12" s="3"/>
     </row>
@@ -1445,8 +1447,8 @@
       <c r="L13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="8">
-        <v>14.81</v>
+      <c r="M13" t="s">
+        <v>75</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>39</v>
@@ -1455,13 +1457,13 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q13" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S13" s="3"/>
     </row>
@@ -1498,8 +1500,8 @@
       <c r="L14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="8">
-        <v>17.98</v>
+      <c r="M14" t="s">
+        <v>76</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>39</v>
@@ -1508,13 +1510,13 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q14" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="R14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S14" s="3"/>
     </row>
@@ -1551,8 +1553,8 @@
       <c r="L15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="8">
-        <v>21.15</v>
+      <c r="M15" t="s">
+        <v>77</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>39</v>
@@ -1561,13 +1563,13 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q15" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S15" s="3"/>
     </row>
@@ -1604,8 +1606,8 @@
       <c r="L16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="8">
-        <v>31.73</v>
+      <c r="M16" t="s">
+        <v>78</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>39</v>
@@ -1614,13 +1616,13 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q16" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="S16" s="3"/>
     </row>
@@ -1657,8 +1659,8 @@
       <c r="L17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M17" s="8">
-        <v>42.3</v>
+      <c r="M17" t="s">
+        <v>79</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>39</v>
@@ -1667,13 +1669,13 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q17" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="R17" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="S17" s="3"/>
     </row>
@@ -1710,8 +1712,8 @@
       <c r="L18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="8">
-        <v>43.36</v>
+      <c r="M18" t="s">
+        <v>80</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>40</v>
@@ -1720,13 +1722,13 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q18" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="S18" s="3"/>
     </row>
@@ -1763,8 +1765,8 @@
       <c r="L19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M19" s="8">
-        <v>53.93</v>
+      <c r="M19" t="s">
+        <v>81</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>40</v>
@@ -1773,13 +1775,13 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="Q19" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="R19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="S19" s="3"/>
     </row>
@@ -1816,8 +1818,8 @@
       <c r="L20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="8">
-        <v>62.39</v>
+      <c r="M20" t="s">
+        <v>82</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>40</v>
@@ -1826,13 +1828,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="Q20" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="R20" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="S20" s="3"/>
     </row>
@@ -1869,8 +1871,8 @@
       <c r="L21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M21" s="8">
-        <v>111.04</v>
+      <c r="M21" t="s">
+        <v>83</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>40</v>
@@ -1879,13 +1881,13 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="Q21" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="R21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="S21" s="3"/>
     </row>
@@ -1922,8 +1924,8 @@
       <c r="L22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="10">
-        <v>223.37</v>
+      <c r="M22" t="s">
+        <v>54</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>42</v>
@@ -1932,13 +1934,13 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="Q22" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="R22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S22" s="3"/>
     </row>
@@ -1975,8 +1977,8 @@
       <c r="L23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="10">
-        <v>436.98</v>
+      <c r="M23" t="s">
+        <v>55</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>42</v>
@@ -1985,13 +1987,13 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="Q23" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S23" s="3"/>
     </row>
@@ -2028,8 +2030,8 @@
       <c r="L24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="10">
-        <v>278.12</v>
+      <c r="M24" t="s">
+        <v>56</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>43</v>
@@ -2038,13 +2040,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="Q24" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S24" s="3"/>
     </row>
@@ -2081,8 +2083,8 @@
       <c r="L25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M25" s="10">
-        <v>52.88</v>
+      <c r="M25" t="s">
+        <v>53</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>50</v>
@@ -2091,13 +2093,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="Q25" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="R25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S25" s="3"/>
     </row>
@@ -2134,8 +2136,8 @@
       <c r="L26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M26" s="8">
-        <v>1171.4100000000001</v>
+      <c r="M26" t="s">
+        <v>57</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>51</v>
@@ -2144,13 +2146,13 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="Q26" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="R26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S26" s="3"/>
     </row>

--- a/FedExApplication/src/TestFiles/FedExShipments_DEV.xlsx
+++ b/FedExApplication/src/TestFiles/FedExShipments_DEV.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
+    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="106">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -326,12 +326,19 @@
   </si>
   <si>
     <t>310109786975</t>
+  </si>
+  <si>
+    <t>310109788588</t>
+  </si>
+  <si>
+    <t>310109788599</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -382,24 +389,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -452,7 +459,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -466,10 +473,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -627,7 +634,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -636,13 +643,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -652,7 +659,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -661,7 +668,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -670,7 +677,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -680,12 +687,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -716,7 +723,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -735,7 +742,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -747,8 +754,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
       <selection activeCell="S24" sqref="S24"/>
@@ -756,20 +763,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" style="2" collapsed="1"/>
-    <col min="19" max="19" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="18" max="18" style="2" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="35.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -874,13 +881,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="Q2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -927,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="Q3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S3" s="3"/>
     </row>
@@ -1622,7 +1629,7 @@
         <v>78</v>
       </c>
       <c r="R16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S16" s="3"/>
     </row>
@@ -1675,7 +1682,7 @@
         <v>79</v>
       </c>
       <c r="R17" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S17" s="3"/>
     </row>
@@ -1728,7 +1735,7 @@
         <v>80</v>
       </c>
       <c r="R18" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S18" s="3"/>
     </row>
@@ -1781,7 +1788,7 @@
         <v>81</v>
       </c>
       <c r="R19" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S19" s="3"/>
     </row>
@@ -1834,7 +1841,7 @@
         <v>82</v>
       </c>
       <c r="R20" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S20" s="3"/>
     </row>
@@ -1887,7 +1894,7 @@
         <v>83</v>
       </c>
       <c r="R21" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S21" s="3"/>
     </row>
@@ -2158,35 +2165,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R7">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule dxfId="6" operator="equal" priority="7" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R24 R27:R1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule dxfId="5" operator="equal" priority="5" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule dxfId="4" operator="equal" priority="6" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>